--- a/fuentes/contenidos/grado09/guion08/Escaleta CN_09_08_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion08/Escaleta CN_09_08_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  3\CN_09_08_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado09\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1025,16 +1025,34 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,24 +1092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,94 +1432,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="66" t="s">
+      <c r="N1" s="84"/>
+      <c r="O1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="73"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="82"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="O34" s="40"/>
       <c r="P34" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="17">
         <v>6</v>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="32">
         <v>6</v>
@@ -4595,12 +4595,6 @@
   </sheetData>
   <autoFilter ref="A2:U42"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4615,6 +4609,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O13" r:id="rId1"/>
@@ -4625,7 +4625,7 @@
   <pageSetup orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
